--- a/ETCinhib_timeseries/H1299_metformin/H1299-Nuc-RFP_v1/merged_H1299.xlsx
+++ b/ETCinhib_timeseries/H1299_metformin/H1299-Nuc-RFP_v1/merged_H1299.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/ETCinhib_timeseries/H1299_metformin/H1299-Nuc-RFP_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96BE7E7-87F6-3240-9A10-5578F9BA7076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF77BA8-5E21-2F47-8946-BD0174847C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="3380" windowWidth="28040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3380" windowWidth="28040" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="133">
   <si>
     <t>Sample ID</t>
   </si>
@@ -413,15 +414,34 @@
   </si>
   <si>
     <t>Mean diameter</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Cell vol (uL)</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Avg.</t>
+  </si>
+  <si>
+    <t>90% of min</t>
+  </si>
+  <si>
+    <t>Vol. transfer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -484,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -496,6 +516,16 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2098,6 +2128,395 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prlfr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6669954780426667E-2"/>
+                  <c:y val="-0.72511416149309638"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$163:$F$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7294.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7869.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$163:$G$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1876559414331787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96648213678435102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65817308304772559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25531528893007405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70806809971167539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93669235190843803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8AE-C641-AA01-3077B022EE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="866719423"/>
+        <c:axId val="866633423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="866719423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="13500"/>
+          <c:min val="5800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="866633423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="866633423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.24"/>
+          <c:min val="0.18000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="866719423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2178,6 +2597,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3210,20 +3669,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>128396</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>26656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>96646</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>166357</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3279,6 +4254,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>453310</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>85498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300317</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>129947</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF34012A-8D8A-5748-F6D6-5605E9A3FB29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3608,10 +4619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E135" workbookViewId="0">
-      <selection activeCell="I149" sqref="I149"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3620,9 +4631,13 @@
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3671,8 +4686,17 @@
       <c r="Q1" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -3713,7 +4737,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -3754,7 +4778,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -3795,7 +4819,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3836,7 +4860,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3877,7 +4901,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -3918,7 +4942,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -3939,7 +4963,7 @@
         <v>6408.166666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3991,8 +5015,12 @@
         <f>LOG(P11,2)/O11</f>
         <v>1.1401848460938075</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S11" s="8">
+        <f>J11*K11*0.000000001</f>
+        <v>0.43398044000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -4044,8 +5072,12 @@
         <f>LOG(P12,2)/O12</f>
         <v>1.054174189711816</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12" s="8">
+        <f>J12*K12*0.000000001</f>
+        <v>0.41601197000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -4065,8 +5097,20 @@
         <f>AVERAGE(Q11:Q12)</f>
         <v>1.0971795179028119</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T13" s="8">
+        <f>AVERAGE(S11:S12)</f>
+        <v>0.42499620500000002</v>
+      </c>
+      <c r="U13" s="9">
+        <f>$T$109/T13*1000</f>
+        <v>378.16379913321811</v>
+      </c>
+      <c r="V13" s="10" t="str">
+        <f>A11</f>
+        <v>d2_0mM_1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4118,8 +5162,12 @@
         <f>LOG(P15,2)/O15</f>
         <v>0.83626004921097452</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S15" s="8">
+        <f>J15*K15*0.000000001</f>
+        <v>0.29775294000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -4171,8 +5219,12 @@
         <f>LOG(P16,2)/O16</f>
         <v>0.73991459053424369</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S16" s="8">
+        <f>J16*K16*0.000000001</f>
+        <v>0.28203216000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -4192,8 +5244,20 @@
         <f>AVERAGE(Q15:Q16)</f>
         <v>0.78808731987260905</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T17" s="8">
+        <f>AVERAGE(S15:S16)</f>
+        <v>0.28989255000000003</v>
+      </c>
+      <c r="U17" s="9">
+        <f>$T$109/T17*1000</f>
+        <v>554.40603596056542</v>
+      </c>
+      <c r="V17" s="10" t="str">
+        <f>A15</f>
+        <v>d2_1.5mM_1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4245,8 +5309,12 @@
         <f>LOG(P19,2)/O19</f>
         <v>0.60707445109402858</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S19" s="8">
+        <f>J19*K19*0.000000001</f>
+        <v>0.23242188000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -4298,8 +5366,12 @@
         <f>LOG(P20,2)/O20</f>
         <v>0.54254484826608196</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="8">
+        <f>J20*K20*0.000000001</f>
+        <v>0.23087574000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -4319,8 +5391,20 @@
         <f>AVERAGE(Q19:Q20)</f>
         <v>0.57480964968005521</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T21" s="8">
+        <f>AVERAGE(S19:S20)</f>
+        <v>0.23164881000000004</v>
+      </c>
+      <c r="U21" s="9">
+        <f>$T$109/T21*1000</f>
+        <v>693.80101499334262</v>
+      </c>
+      <c r="V21" s="10" t="str">
+        <f>A19</f>
+        <v>d2_2.5mM_1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -4372,8 +5456,12 @@
         <f>LOG(P23,2)/O23</f>
         <v>0.42043623929895152</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="8">
+        <f>J23*K23*0.000000001</f>
+        <v>0.18015201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -4425,8 +5513,12 @@
         <f>LOG(P24,2)/O24</f>
         <v>0.38952934007168688</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="8">
+        <f>J24*K24*0.000000001</f>
+        <v>0.1769995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -4446,8 +5538,20 @@
         <f>AVERAGE(Q23:Q24)</f>
         <v>0.4049827896853192</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T25" s="8">
+        <f>AVERAGE(S23:S24)</f>
+        <v>0.178575755</v>
+      </c>
+      <c r="U25" s="9">
+        <f>$T$109/T25*1000</f>
+        <v>900</v>
+      </c>
+      <c r="V25" s="10" t="str">
+        <f>A23</f>
+        <v>d2_4mM_1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -4499,8 +5603,12 @@
         <f>LOG(P27,2)/O27</f>
         <v>0.53986416421847383</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="8">
+        <f>J27*K27*0.000000001</f>
+        <v>0.23442210000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -4521,11 +5629,23 @@
         <f>AVERAGE(Q27)</f>
         <v>0.53986416421847383</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T28" s="8">
+        <f>AVERAGE(S27)</f>
+        <v>0.23442210000000002</v>
+      </c>
+      <c r="U28" s="9">
+        <f>$T$109/T28*1000</f>
+        <v>685.59312240612121</v>
+      </c>
+      <c r="V28" s="10" t="str">
+        <f>A27</f>
+        <v>d2_4mM-Asp_2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4578,7 +5698,7 @@
         <v>0.56016720300900402</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -4600,7 +5720,7 @@
         <v>0.56016720300900402</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -4652,8 +5772,12 @@
         <f>LOG(P34,2)/O34</f>
         <v>1.1987456415528783</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S34" s="8">
+        <f>J34*K34*0.000000001</f>
+        <v>1.0571264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -4705,8 +5829,12 @@
         <f>LOG(P35,2)/O35</f>
         <v>1.1466622550283534</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="8">
+        <f>J35*K35*0.000000001</f>
+        <v>0.97364670000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -4726,8 +5854,20 @@
         <f>AVERAGE(Q34:Q35)</f>
         <v>1.1727039482906159</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T36" s="8">
+        <f>AVERAGE(S34:S35)</f>
+        <v>1.0153865500000001</v>
+      </c>
+      <c r="U36" s="9">
+        <f>$T$109/T36*1000</f>
+        <v>158.28275399157098</v>
+      </c>
+      <c r="V36" s="10" t="str">
+        <f>A34</f>
+        <v>d3_0uM_1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4779,8 +5919,12 @@
         <f>LOG(P38,2)/O38</f>
         <v>0.90223636610580726</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="8">
+        <f>J38*K38*0.000000001</f>
+        <v>0.63167136000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4832,8 +5976,12 @@
         <f>LOG(P39,2)/O39</f>
         <v>0.80358318757276637</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S39" s="8">
+        <f>J39*K39*0.000000001</f>
+        <v>0.53964366000000008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -4853,8 +6001,20 @@
         <f>AVERAGE(Q38:Q39)</f>
         <v>0.85290977683928682</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T40" s="8">
+        <f>AVERAGE(S38:S39)</f>
+        <v>0.5856575100000001</v>
+      </c>
+      <c r="U40" s="9">
+        <f>$T$109/T40*1000</f>
+        <v>274.42349283628238</v>
+      </c>
+      <c r="V40" s="10" t="str">
+        <f>A38</f>
+        <v>d3_1.5uM_1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -4906,8 +6066,12 @@
         <f>LOG(P42,2)/O42</f>
         <v>0.57333111107628665</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S42" s="8">
+        <f>J42*K42*0.000000001</f>
+        <v>0.38317448000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -4959,8 +6123,12 @@
         <f>LOG(P43,2)/O43</f>
         <v>0.55320787372837543</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S43" s="8">
+        <f>J43*K43*0.000000001</f>
+        <v>0.38023146000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -4980,8 +6148,20 @@
         <f>AVERAGE(Q42:Q43)</f>
         <v>0.56326949240233104</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T44" s="8">
+        <f>AVERAGE(S42:S43)</f>
+        <v>0.38170297000000003</v>
+      </c>
+      <c r="U44" s="9">
+        <f>$T$109/T44*1000</f>
+        <v>421.05561688451098</v>
+      </c>
+      <c r="V44" s="10" t="str">
+        <f>A42</f>
+        <v>d3_2.5uM_1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -5033,8 +6213,12 @@
         <f>LOG(P46,2)/O46</f>
         <v>0.31218391197659873</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="8">
+        <f>J46*K46*0.000000001</f>
+        <v>0.24061752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -5086,8 +6270,12 @@
         <f>LOG(P47,2)/O47</f>
         <v>0.26274859925542521</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="8">
+        <f>J47*K47*0.000000001</f>
+        <v>0.21721369000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -5107,8 +6295,20 @@
         <f>AVERAGE(Q46:Q47)</f>
         <v>0.28746625561601197</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T48" s="8">
+        <f>AVERAGE(S46:S47)</f>
+        <v>0.22891560500000002</v>
+      </c>
+      <c r="U48" s="9">
+        <f>$T$109/T48*1000</f>
+        <v>702.08485568294907</v>
+      </c>
+      <c r="V48" s="10" t="str">
+        <f>A46</f>
+        <v>d3_4uM_1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -5160,8 +6360,12 @@
         <f>LOG(P50,2)/O50</f>
         <v>0.65896635231128331</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S50" s="8">
+        <f>J50*K50*0.000000001</f>
+        <v>0.4539436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -5213,8 +6417,12 @@
         <f>LOG(P51,2)/O51</f>
         <v>0.60560762766278653</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S51" s="8">
+        <f>J51*K51*0.000000001</f>
+        <v>0.39831252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -5234,8 +6442,20 @@
         <f>AVERAGE(Q50:Q51)</f>
         <v>0.63228698998703492</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T52" s="8">
+        <f>AVERAGE(S50:S51)</f>
+        <v>0.42612806000000003</v>
+      </c>
+      <c r="U52" s="9">
+        <f>$T$109/T52*1000</f>
+        <v>377.15934383668611</v>
+      </c>
+      <c r="V52" s="10" t="str">
+        <f>A50</f>
+        <v>d3_4uM-Asp_1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -5288,7 +6508,7 @@
         <v>0.85610526969007517</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -5341,7 +6561,7 @@
         <v>0.79913749578186388</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -5362,7 +6582,7 @@
         <v>0.82762138273596952</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -5414,8 +6634,12 @@
         <f>LOG(P59,2)/O59</f>
         <v>1.0925231037603287</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S59" s="8">
+        <f>J59*K59*0.000000001</f>
+        <v>1.6799400000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -5467,8 +6691,12 @@
         <f>LOG(P60,2)/O60</f>
         <v>1.209313722608661</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S60" s="8">
+        <f>J60*K60*0.000000001</f>
+        <v>2.3552046</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -5488,8 +6716,20 @@
         <f>AVERAGE(Q59:Q60)</f>
         <v>1.1509184131844949</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T61" s="8">
+        <f>AVERAGE(S59:S60)</f>
+        <v>2.0175723000000003</v>
+      </c>
+      <c r="U61" s="9">
+        <f>$T$109/T61*1000</f>
+        <v>79.659192138988018</v>
+      </c>
+      <c r="V61" s="10" t="str">
+        <f>A59</f>
+        <v>d4_0mM_1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -5541,8 +6781,12 @@
         <f>LOG(P63,2)/O63</f>
         <v>0.95761142974175428</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S63" s="8">
+        <f>J63*K63*0.000000001</f>
+        <v>1.2675528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -5594,8 +6838,12 @@
         <f>LOG(P64,2)/O64</f>
         <v>0.92773697010128298</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S64" s="8">
+        <f>J64*K64*0.000000001</f>
+        <v>1.190574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -5615,8 +6863,20 @@
         <f>AVERAGE(Q63:Q64)</f>
         <v>0.94267419992151869</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T65" s="8">
+        <f>AVERAGE(S63:S64)</f>
+        <v>1.2290634</v>
+      </c>
+      <c r="U65" s="9">
+        <f>$T$109/T65*1000</f>
+        <v>130.76475916539374</v>
+      </c>
+      <c r="V65" s="10" t="str">
+        <f>A63</f>
+        <v>d4_1mM_1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -5668,8 +6928,12 @@
         <f>LOG(P67,2)/O67</f>
         <v>0.60695433944374122</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S67" s="8">
+        <f>J67*K67*0.000000001</f>
+        <v>0.59795657000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -5721,8 +6985,12 @@
         <f>LOG(P68,2)/O68</f>
         <v>0.57931770408089556</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S68" s="8">
+        <f>J68*K68*0.000000001</f>
+        <v>0.58787820000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -5742,8 +7010,20 @@
         <f>AVERAGE(Q67:Q68)</f>
         <v>0.59313602176231839</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T69" s="8">
+        <f>AVERAGE(S67:S68)</f>
+        <v>0.59291738500000002</v>
+      </c>
+      <c r="U69" s="9">
+        <f>$T$109/T69*1000</f>
+        <v>271.06336155078333</v>
+      </c>
+      <c r="V69" s="10" t="str">
+        <f>A67</f>
+        <v>d4_2.5mM_1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -5795,8 +7075,12 @@
         <f>LOG(P71,2)/O71</f>
         <v>0.21956873365373486</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S71" s="8">
+        <f>J71*K71*0.000000001</f>
+        <v>0.27161726000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -5848,8 +7132,12 @@
         <f>LOG(P72,2)/O72</f>
         <v>0.21072302488244327</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S72" s="8">
+        <f>J72*K72*0.000000001</f>
+        <v>0.26947998000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -5869,8 +7157,20 @@
         <f>AVERAGE(Q71:Q72)</f>
         <v>0.21514587926808906</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T73" s="8">
+        <f>AVERAGE(S71:S72)</f>
+        <v>0.27054862000000002</v>
+      </c>
+      <c r="U73" s="9">
+        <f>$T$109/T73*1000</f>
+        <v>594.04546029471521</v>
+      </c>
+      <c r="V73" s="10" t="str">
+        <f>A71</f>
+        <v>d4_4mM_1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -5922,8 +7222,12 @@
         <f>LOG(P75,2)/O75</f>
         <v>0.6388637159684214</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S75" s="8">
+        <f>J75*K75*0.000000001</f>
+        <v>0.67341654000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -5975,8 +7279,12 @@
         <f>LOG(P76,2)/O76</f>
         <v>0.63250382633401159</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S76" s="8">
+        <f>J76*K76*0.000000001</f>
+        <v>0.65798240000000008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -5996,8 +7304,20 @@
         <f>AVERAGE(Q75:Q76)</f>
         <v>0.63568377115121644</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T77" s="8">
+        <f>AVERAGE(S75:S76)</f>
+        <v>0.66569947000000007</v>
+      </c>
+      <c r="U77" s="9">
+        <f>$T$109/T77*1000</f>
+        <v>241.42753110498944</v>
+      </c>
+      <c r="V77" s="10" t="str">
+        <f>A75</f>
+        <v>d4_4mM-Asp_1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -6050,7 +7370,7 @@
         <v>0.89666596394341691</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -6103,7 +7423,7 @@
         <v>0.89130066870562452</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>119</v>
       </c>
@@ -6124,7 +7444,7 @@
         <v>0.89398331632452077</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>53</v>
       </c>
@@ -6176,8 +7496,12 @@
         <f>LOG(P84,2)/O84</f>
         <v>1.1876559414331787</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S84" s="8">
+        <f>J84*K84*0.000000001</f>
+        <v>4.2948681000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -6229,8 +7553,12 @@
         <f>LOG(P85,2)/O85</f>
         <v>1.1876559414331787</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S85" s="8">
+        <f>J85*K85*0.000000001</f>
+        <v>4.2948681000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -6250,8 +7578,20 @@
         <f>AVERAGE(Q84:Q85)</f>
         <v>1.1876559414331787</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T86" s="8">
+        <f>AVERAGE(S84:S85)</f>
+        <v>4.2948681000000004</v>
+      </c>
+      <c r="U86" s="9">
+        <f>$T$109/T86*1000</f>
+        <v>37.420981449930906</v>
+      </c>
+      <c r="V86" s="10" t="str">
+        <f>A84</f>
+        <v>d5_0mM_1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -6303,8 +7643,12 @@
         <f>LOG(P88,2)/O88</f>
         <v>0.98051358882015993</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S88" s="8">
+        <f>J88*K88*0.000000001</f>
+        <v>2.4803982000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -6356,8 +7700,12 @@
         <f>LOG(P89,2)/O89</f>
         <v>0.95245068474854222</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="8">
+        <f>J89*K89*0.000000001</f>
+        <v>2.2536224000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -6377,8 +7725,20 @@
         <f>AVERAGE(Q88:Q89)</f>
         <v>0.96648213678435102</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T90" s="8">
+        <f>AVERAGE(S88:S89)</f>
+        <v>2.3670103000000005</v>
+      </c>
+      <c r="U90" s="9">
+        <f>$T$109/T90*1000</f>
+        <v>67.899231152479544</v>
+      </c>
+      <c r="V90" s="10" t="str">
+        <f>A88</f>
+        <v>d5_1.5mM_1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>56</v>
       </c>
@@ -6430,8 +7790,12 @@
         <f>LOG(P92,2)/O92</f>
         <v>0.66646236231060729</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S92" s="8">
+        <f>J92*K92*0.000000001</f>
+        <v>1.0235843</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>57</v>
       </c>
@@ -6483,8 +7847,12 @@
         <f>LOG(P93,2)/O93</f>
         <v>0.64988380378484389</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S93" s="8">
+        <f>J93*K93*0.000000001</f>
+        <v>1.0981961</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -6504,8 +7872,20 @@
         <f>AVERAGE(Q92:Q93)</f>
         <v>0.65817308304772559</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T94" s="8">
+        <f>AVERAGE(S92:S93)</f>
+        <v>1.0608902</v>
+      </c>
+      <c r="U94" s="9">
+        <f>$T$109/T94*1000</f>
+        <v>151.49369793405577</v>
+      </c>
+      <c r="V94" s="10" t="str">
+        <f>A92</f>
+        <v>d5_2.5mM_1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>62</v>
       </c>
@@ -6557,8 +7937,12 @@
         <f>LOG(P96,2)/O96</f>
         <v>0.27086096464106263</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S96" s="8">
+        <f>J96*K96*0.000000001</f>
+        <v>0.38430364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>63</v>
       </c>
@@ -6610,8 +7994,12 @@
         <f>LOG(P97,2)/O97</f>
         <v>0.23976961321908552</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S97" s="8">
+        <f>J97*K97*0.000000001</f>
+        <v>0.35312640000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -6631,8 +8019,20 @@
         <f>AVERAGE(Q96:Q97)</f>
         <v>0.25531528893007405</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T98" s="8">
+        <f>AVERAGE(S96:S97)</f>
+        <v>0.36871502</v>
+      </c>
+      <c r="U98" s="9">
+        <f>$T$109/T98*1000</f>
+        <v>435.88725921715911</v>
+      </c>
+      <c r="V98" s="10" t="str">
+        <f>A96</f>
+        <v>d5_4mM_1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>58</v>
       </c>
@@ -6684,8 +8084,12 @@
         <f>LOG(P100,2)/O100</f>
         <v>0.71417436645247656</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="8">
+        <f>J100*K100*0.000000001</f>
+        <v>1.3069267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -6737,8 +8141,12 @@
         <f>LOG(P101,2)/O101</f>
         <v>0.70196183297087422</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S101" s="8">
+        <f>J101*K101*0.000000001</f>
+        <v>1.2363403000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -6758,8 +8166,20 @@
         <f>AVERAGE(Q100:Q101)</f>
         <v>0.70806809971167539</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T102" s="8">
+        <f>AVERAGE(S100:S101)</f>
+        <v>1.2716335000000001</v>
+      </c>
+      <c r="U102" s="9">
+        <f>$T$109/T102*1000</f>
+        <v>126.38718585189837</v>
+      </c>
+      <c r="V102" s="10" t="str">
+        <f>A100</f>
+        <v>d5_4mM-Asp_1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>60</v>
       </c>
@@ -6812,7 +8232,7 @@
         <v>0.94724281103013441</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>61</v>
       </c>
@@ -6865,7 +8285,7 @@
         <v>0.92614189278674153</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -6886,6 +8306,24 @@
         <v>0.93669235190843803</v>
       </c>
     </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S108" t="s">
+        <v>129</v>
+      </c>
+      <c r="T108" s="8">
+        <f>MIN(T11:T102)</f>
+        <v>0.178575755</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S109" t="s">
+        <v>131</v>
+      </c>
+      <c r="T109">
+        <f>T108*0.9</f>
+        <v>0.1607181795</v>
+      </c>
+    </row>
     <row r="116" spans="6:12" x14ac:dyDescent="0.2">
       <c r="G116" s="6" t="s">
         <v>122</v>
@@ -7126,8 +8564,251 @@
         <v>7869.5</v>
       </c>
     </row>
+    <row r="162" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>127</v>
+      </c>
+      <c r="G162" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>6177</v>
+      </c>
+      <c r="G163">
+        <v>1.1876559414331787</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>7294.5</v>
+      </c>
+      <c r="G164">
+        <v>0.96648213678435102</v>
+      </c>
+    </row>
+    <row r="165" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>9498</v>
+      </c>
+      <c r="G165">
+        <v>0.65817308304772559</v>
+      </c>
+    </row>
+    <row r="166" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>13226</v>
+      </c>
+      <c r="G166">
+        <v>0.25531528893007405</v>
+      </c>
+    </row>
+    <row r="167" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>9567</v>
+      </c>
+      <c r="G167">
+        <v>0.70806809971167539</v>
+      </c>
+    </row>
+    <row r="168" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>7869.5</v>
+      </c>
+      <c r="G168">
+        <v>0.93669235190843803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5278F34A-0512-3641-8741-5DDE8001B1E7}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>378.16379913321811</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>554.40603596056542</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>693.80101499334262</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>900</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>685.59312240612121</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>158.28275399157098</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>274.42349283628238</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>421.05561688451098</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>702.08485568294907</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>377.15934383668611</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>79.659192138988018</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>130.76475916539374</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>271.06336155078333</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>594.04546029471521</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>241.42753110498944</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>37.420981449930906</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>67.899231152479544</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>151.49369793405577</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>435.88725921715911</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>126.38718585189837</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>